--- a/src/test/java/msf/excels/product_trees.xlsx
+++ b/src/test/java/msf/excels/product_trees.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>stock_no</t>
   </si>
@@ -133,9 +133,6 @@
     <t>test_workstation6</t>
   </si>
   <si>
-    <t>test_workstation7</t>
-  </si>
-  <si>
     <t>test_workstation8</t>
   </si>
   <si>
@@ -148,13 +145,7 @@
     <t>test_workstation11</t>
   </si>
   <si>
-    <t>test_workstation12</t>
-  </si>
-  <si>
     <t>test_workstation13</t>
-  </si>
-  <si>
-    <t>test_workstation14</t>
   </si>
 </sst>
 </file>
@@ -548,10 +539,19 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -617,7 +617,7 @@
         <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -648,9 +648,7 @@
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
@@ -658,7 +656,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -695,12 +693,8 @@
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="5">
         <v>1</v>
       </c>
@@ -730,17 +724,15 @@
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="5">
         <v>0</v>
@@ -778,11 +770,9 @@
         <v>37</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="H6" s="4"/>
       <c r="I6" s="5">
         <v>1</v>
       </c>
